--- a/medicine/Mort/Thanatocénose/Thanatocénose.xlsx
+++ b/medicine/Mort/Thanatocénose/Thanatocénose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thanatoc%C3%A9nose</t>
+          <t>Thanatocénose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La thanatocénose est l'ensemble des êtres vivants morts, dont les restes peuvent être trouvés en un même site. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thanatoc%C3%A9nose</t>
+          <t>Thanatocénose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La thanatocénose est, bien souvent, mais pas toujours, le reflet de la biocénose du site (par accumulation, naturelle, des cadavres des animaux qui y vivent, au fur et à mesure de leur mort, notamment).
 Cependant, certaines conditions peuvent modifier l'accumulation des restes, et aboutir à des perturbations de la thanatocénose, qui ne reflétera plus qu'imparfaitement la biocénose d'origine : ainsi, certains types de restes peuvent faire l'objet d'une prédation, de la part de la faune charognarde, notamment, qui peut ainsi priver totalement la thanatocénose d'une ou plusieurs espèces, ou d'une proportion variable d'individus.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thanatoc%C3%A9nose</t>
+          <t>Thanatocénose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Exemples de thanatocénoses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cimetières d'éléphants
 Les phosphorites du Quercy
